--- a/Desempeño grupal grupo no 1.xlsx
+++ b/Desempeño grupal grupo no 1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Mes 1" sheetId="1" r:id="rId1"/>
@@ -672,7 +667,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -707,6 +702,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -728,12 +724,9 @@
             <c:strRef>
               <c:f>'Mes 1'!$F$1:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICIENCIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICIENCIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -859,7 +852,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -886,7 +879,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -894,6 +886,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -915,12 +908,9 @@
             <c:strRef>
               <c:f>'Mes 2'!$P$1:$P$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INICIATIVA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>INICIATIVA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1018,7 +1008,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1046,7 +1035,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1073,7 +1062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1081,6 +1069,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1102,12 +1091,9 @@
             <c:strRef>
               <c:f>'Mes 2'!$U$1:$U$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RESPETO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>RESPETO Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1205,7 +1191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1233,7 +1218,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1260,7 +1245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1268,6 +1252,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1289,12 +1274,9 @@
             <c:strRef>
               <c:f>'Mes 2'!$Z$1:$Z$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PUNTUALIDAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>PUNTUALIDAD Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1392,7 +1374,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1420,7 +1401,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1447,7 +1428,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1455,6 +1435,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1476,12 +1457,9 @@
             <c:strRef>
               <c:f>'Mes 2'!$AF$1:$AF$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resumen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Mensual</c:v>
+                  <c:v>Resumen Total Mensual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1579,7 +1557,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1607,7 +1584,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1634,7 +1611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1642,6 +1618,7 @@
       <c:rotX val="30"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2193,12 +2170,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="200381952"/>
-        <c:axId val="200811264"/>
+        <c:axId val="83398016"/>
+        <c:axId val="83408000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="200381952"/>
+        <c:axId val="83398016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2195,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200811264"/>
+        <c:crossAx val="83408000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2226,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200811264"/>
+        <c:axId val="83408000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,14 +2224,13 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200381952"/>
+        <c:crossAx val="83398016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2291,7 +2267,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2325,6 +2301,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2346,12 +2323,9 @@
             <c:strRef>
               <c:f>'Mes 3'!$F$1:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICIENCIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICIENCIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2474,7 +2448,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2508,6 +2482,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2529,12 +2504,9 @@
             <c:strRef>
               <c:f>'Mes 3'!$K$1:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICACIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICACIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2657,7 +2629,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2691,6 +2663,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2712,12 +2685,9 @@
             <c:strRef>
               <c:f>'Mes 3'!$P$1:$P$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INICIATIVA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>INICIATIVA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2840,7 +2810,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2874,6 +2844,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2895,12 +2866,9 @@
             <c:strRef>
               <c:f>'Mes 3'!$U$1:$U$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RESPETO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>RESPETO Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3023,7 +2991,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3057,6 +3025,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3078,12 +3047,9 @@
             <c:strRef>
               <c:f>'Mes 3'!$Z$1:$Z$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PUNTUALIDAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>PUNTUALIDAD Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3206,7 +3172,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3241,6 +3207,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3262,12 +3229,9 @@
             <c:strRef>
               <c:f>'Mes 1'!$K$1:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICACIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICACIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3393,7 +3357,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3427,6 +3391,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3448,12 +3413,9 @@
             <c:strRef>
               <c:f>'Mes 3'!$AF$1:$AF$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resumen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Mensual</c:v>
+                  <c:v>Resumen Total Mensual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3576,7 +3538,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3610,6 +3572,7 @@
       <c:rotX val="30"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4151,12 +4114,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="200810872"/>
-        <c:axId val="325617304"/>
+        <c:axId val="83767680"/>
+        <c:axId val="83769216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="200810872"/>
+        <c:axId val="83767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4139,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325617304"/>
+        <c:crossAx val="83769216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4184,7 +4147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325617304"/>
+        <c:axId val="83769216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4168,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200810872"/>
+        <c:crossAx val="83767680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,7 +4211,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4282,6 +4245,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4303,12 +4267,9 @@
             <c:strRef>
               <c:f>'Mes 4'!$F$1:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICIENCIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICIENCIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4431,7 +4392,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4465,6 +4426,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4486,12 +4448,9 @@
             <c:strRef>
               <c:f>'Mes 4'!$K$1:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICACIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICACIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4614,7 +4573,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4648,6 +4607,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4669,12 +4629,9 @@
             <c:strRef>
               <c:f>'Mes 4'!$P$1:$P$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INICIATIVA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>INICIATIVA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4797,7 +4754,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4831,6 +4788,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4852,12 +4810,9 @@
             <c:strRef>
               <c:f>'Mes 4'!$U$1:$U$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RESPETO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>RESPETO Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4980,7 +4935,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5014,6 +4969,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -5035,12 +4991,9 @@
             <c:strRef>
               <c:f>'Mes 4'!$Z$1:$Z$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PUNTUALIDAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>PUNTUALIDAD Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5163,7 +5116,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5197,6 +5150,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -5218,12 +5172,9 @@
             <c:strRef>
               <c:f>'Mes 4'!$AF$1:$AF$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resumen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Mensual</c:v>
+                  <c:v>Resumen Total Mensual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5346,7 +5297,7 @@
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5380,6 +5331,7 @@
       <c:rotX val="30"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -5921,12 +5873,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="325616912"/>
-        <c:axId val="325971416"/>
+        <c:axId val="84509824"/>
+        <c:axId val="84511360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="325616912"/>
+        <c:axId val="84509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5946,7 +5898,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325971416"/>
+        <c:crossAx val="84511360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5954,7 +5906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325971416"/>
+        <c:axId val="84511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5975,7 +5927,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325616912"/>
+        <c:crossAx val="84509824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6018,7 +5970,7 @@
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6052,6 +6004,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6073,12 +6026,9 @@
             <c:strRef>
               <c:f>'Mes 5'!$F$1:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICIENCIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICIENCIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6201,7 +6151,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6236,6 +6186,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6257,12 +6208,9 @@
             <c:strRef>
               <c:f>'Mes 1'!$P$1:$P$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INICIATIVA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>INICIATIVA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6388,7 +6336,7 @@
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6422,6 +6370,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6443,12 +6392,9 @@
             <c:strRef>
               <c:f>'Mes 5'!$K$1:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICACIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICACIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6571,7 +6517,7 @@
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6605,6 +6551,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6626,12 +6573,9 @@
             <c:strRef>
               <c:f>'Mes 5'!$P$1:$P$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INICIATIVA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>INICIATIVA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6754,7 +6698,7 @@
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6788,6 +6732,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6809,12 +6754,9 @@
             <c:strRef>
               <c:f>'Mes 5'!$U$1:$U$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RESPETO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>RESPETO Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6937,7 +6879,7 @@
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6971,6 +6913,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6992,12 +6935,9 @@
             <c:strRef>
               <c:f>'Mes 5'!$Z$1:$Z$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PUNTUALIDAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>PUNTUALIDAD Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7120,7 +7060,7 @@
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7154,6 +7094,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7175,12 +7116,9 @@
             <c:strRef>
               <c:f>'Mes 5'!$AF$1:$AF$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resumen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Mensual</c:v>
+                  <c:v>Resumen Total Mensual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7303,7 +7241,7 @@
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7337,6 +7275,7 @@
       <c:rotX val="30"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7878,12 +7817,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="325969848"/>
-        <c:axId val="326725560"/>
+        <c:axId val="84989824"/>
+        <c:axId val="84991360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="325969848"/>
+        <c:axId val="84989824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,7 +7842,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326725560"/>
+        <c:crossAx val="84991360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7911,7 +7850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326725560"/>
+        <c:axId val="84991360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7932,7 +7871,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325969848"/>
+        <c:crossAx val="84989824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7975,7 +7914,7 @@
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8014,6 +7953,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -8035,12 +7975,9 @@
             <c:strRef>
               <c:f>'Totales Grupo'!$AK$2:$AK$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resumen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Mensual</c:v>
+                  <c:v>Resumen Total Mensual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8163,7 +8100,7 @@
 <file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9373,12 +9310,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326726344"/>
-        <c:axId val="326725168"/>
+        <c:axId val="84256640"/>
+        <c:axId val="84258176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326726344"/>
+        <c:axId val="84256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9398,7 +9336,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326725168"/>
+        <c:crossAx val="84258176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9406,7 +9344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326725168"/>
+        <c:axId val="84258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9427,7 +9365,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326726344"/>
+        <c:crossAx val="84256640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9461,7 +9399,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9496,6 +9434,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -9517,12 +9456,9 @@
             <c:strRef>
               <c:f>'Mes 1'!$U$1:$U$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RESPETO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>RESPETO Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9648,7 +9584,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9683,6 +9619,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -9704,12 +9641,9 @@
             <c:strRef>
               <c:f>'Mes 1'!$Z$1:$Z$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PUNTUALIDAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>PUNTUALIDAD Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9835,7 +9769,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9870,6 +9804,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -9891,12 +9826,9 @@
             <c:strRef>
               <c:f>'Mes 1'!$AF$1:$AF$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resumen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Mensual</c:v>
+                  <c:v>Resumen Total Mensual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10022,7 +9954,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10057,6 +9989,7 @@
       <c:rotX val="30"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -10608,12 +10541,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="143598264"/>
-        <c:axId val="200383128"/>
+        <c:axId val="82818176"/>
+        <c:axId val="82819712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="143598264"/>
+        <c:axId val="82818176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10633,7 +10566,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200383128"/>
+        <c:crossAx val="82819712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10641,7 +10574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200383128"/>
+        <c:axId val="82819712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10662,7 +10595,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143598264"/>
+        <c:crossAx val="82818176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10706,7 +10639,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10733,7 +10666,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10741,6 +10673,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -10762,12 +10695,9 @@
             <c:strRef>
               <c:f>'Mes 2'!$F$1:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICIENCIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICIENCIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10865,7 +10795,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10893,7 +10822,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10920,7 +10849,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10928,6 +10856,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -10949,12 +10878,9 @@
             <c:strRef>
               <c:f>'Mes 2'!$K$1:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EFICACIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total</c:v>
+                  <c:v>EFICACIA Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11052,7 +10978,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11082,15 +11007,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11114,13 +11039,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11142,15 +11067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11178,9 +11103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11234,13 +11159,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11268,9 +11193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12504,8 +12429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
